--- a/app/templates/target_split.xlsx
+++ b/app/templates/target_split.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taufi\OneDrive\Dokumente\MyProjects\dashboard\kedaikopi-qc\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A269A5A-9C2F-47F9-9BA6-9A3ED8913BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D65DC1-BB60-4880-8EFA-D885E8E2C12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0D3143E3-D6D3-42C5-8793-4F6E47B2B13D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{0D3143E3-D6D3-42C5-8793-4F6E47B2B13D}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET_COLUMN" sheetId="2" r:id="rId1"/>
@@ -1081,27 +1081,18 @@
     <t>Ngofagita</t>
   </si>
   <si>
-    <t>Kab. Jayawijaya</t>
-  </si>
-  <si>
     <t>Hubikiak</t>
   </si>
   <si>
     <t>Sinapuk</t>
   </si>
   <si>
-    <t>Kab. Nabire</t>
-  </si>
-  <si>
     <t>Nabire Barat</t>
   </si>
   <si>
     <t>Wadio</t>
   </si>
   <si>
-    <t>Kab. Merauke</t>
-  </si>
-  <si>
     <t>Tanah Miring</t>
   </si>
   <si>
@@ -1130,6 +1121,15 @@
   </si>
   <si>
     <t>Kab. Halmahera Utara</t>
+  </si>
+  <si>
+    <t>Kota Jayawijaya</t>
+  </si>
+  <si>
+    <t>Kota Nabire</t>
+  </si>
+  <si>
+    <t>Kota Merauke</t>
   </si>
 </sst>
 </file>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD0A89D-7E1E-43CC-819B-BDB9BCB7BB6D}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2166,7 +2166,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>45</v>
@@ -4428,7 +4428,7 @@
         <v>215</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>216</v>
@@ -4834,7 +4834,7 @@
         <v>254</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>344</v>
@@ -4892,7 +4892,7 @@
         <v>256</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>349</v>
@@ -4950,13 +4950,13 @@
         <v>261</v>
       </c>
       <c r="B117" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>275</v>
@@ -4979,13 +4979,13 @@
         <v>262</v>
       </c>
       <c r="B118" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>275</v>
@@ -5008,13 +5008,13 @@
         <v>263</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>275</v>
@@ -5040,10 +5040,10 @@
         <v>265</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>276</v>
@@ -5069,10 +5069,10 @@
         <v>273</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>275</v>
